--- a/CLMebAddNew/Excelfiles/CreateMember.xlsx
+++ b/CLMebAddNew/Excelfiles/CreateMember.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MemberRegistration" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Policy Number</t>
   </si>
@@ -82,9 +82,6 @@
     <t>TESTVSP2YR</t>
   </si>
   <si>
-    <t>MEBSEVEN</t>
-  </si>
-  <si>
     <t>Test Street 1</t>
   </si>
   <si>
@@ -115,16 +112,25 @@
     <t>11111111111111100000</t>
   </si>
   <si>
-    <t>8678684390</t>
-  </si>
-  <si>
-    <t>6768985960</t>
-  </si>
-  <si>
-    <t>91000022</t>
-  </si>
-  <si>
-    <t>12/1/2021</t>
+    <t>75034</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>091000022</t>
+  </si>
+  <si>
+    <t>MEBONE</t>
+  </si>
+  <si>
+    <t>6768985961</t>
+  </si>
+  <si>
+    <t>8678684391</t>
+  </si>
+  <si>
+    <t>07/09/2003</t>
   </si>
 </sst>
 </file>
@@ -183,12 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -498,7 +503,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,56 +595,56 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2">
-        <v>75034</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4">
-        <v>37811</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/CLMebAddNew/Excelfiles/CreateMember.xlsx
+++ b/CLMebAddNew/Excelfiles/CreateMember.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CA5253-3167-4DBB-8EFB-E36F6A895F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MemberRegistration" sheetId="1" r:id="rId1"/>
@@ -115,28 +116,28 @@
     <t>75034</t>
   </si>
   <si>
-    <t>01/01/2022</t>
-  </si>
-  <si>
     <t>091000022</t>
   </si>
   <si>
-    <t>MEBONE</t>
-  </si>
-  <si>
-    <t>6768985961</t>
-  </si>
-  <si>
-    <t>8678684391</t>
-  </si>
-  <si>
     <t>07/09/2003</t>
+  </si>
+  <si>
+    <t>04/01/2022</t>
+  </si>
+  <si>
+    <t>MEBSIXTEEN</t>
+  </si>
+  <si>
+    <t>6168985969</t>
+  </si>
+  <si>
+    <t>8178684399</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,6 +290,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -324,6 +342,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,23 +534,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -595,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -611,22 +646,22 @@
         <v>32</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>27</v>
@@ -641,7 +676,7 @@
         <v>30</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>31</v>

--- a/CLMebAddNew/Excelfiles/CreateMember.xlsx
+++ b/CLMebAddNew/Excelfiles/CreateMember.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CA5253-3167-4DBB-8EFB-E36F6A895F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D120A-F0E6-43F5-95F0-19F30870347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MemberRegistration" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="8" r:id="rId1"/>
+    <sheet name="MemberRegistration" sheetId="1" r:id="rId2"/>
+    <sheet name="Add Dependent" sheetId="2" r:id="rId3"/>
+    <sheet name="Update Member" sheetId="3" r:id="rId4"/>
+    <sheet name="Update Dependent" sheetId="4" r:id="rId5"/>
+    <sheet name="Cancellation" sheetId="5" r:id="rId6"/>
+    <sheet name="Fulfillment" sheetId="6" r:id="rId7"/>
+    <sheet name="Manual Letter" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
   <si>
     <t>Policy Number</t>
   </si>
@@ -132,6 +139,159 @@
   </si>
   <si>
     <t>8178684399</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Membership Start Date</t>
+  </si>
+  <si>
+    <t>PPDCDEP</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>02/23/2003</t>
+  </si>
+  <si>
+    <t>12/01/2020</t>
+  </si>
+  <si>
+    <t>RAVIV@CLOUDTECHSOFT.COM</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>PPDCMEB</t>
+  </si>
+  <si>
+    <t>SEVEN UPDATE</t>
+  </si>
+  <si>
+    <t>6814176561</t>
+  </si>
+  <si>
+    <t>9258414361</t>
+  </si>
+  <si>
+    <t>10/21/2009</t>
+  </si>
+  <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>TMWSCF</t>
+  </si>
+  <si>
+    <t>Member Name</t>
+  </si>
+  <si>
+    <t>ONE UPDATE</t>
+  </si>
+  <si>
+    <t>10/21/2005</t>
+  </si>
+  <si>
+    <t>PPDCMEB SEVEN UPDATE</t>
+  </si>
+  <si>
+    <t>Cancellation Req Date</t>
+  </si>
+  <si>
+    <t>Cancellation Effective Date</t>
+  </si>
+  <si>
+    <t>Cancellation Via</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Cancellation Notes</t>
+  </si>
+  <si>
+    <t>Cancellation Approved By</t>
+  </si>
+  <si>
+    <t>Approved Date</t>
+  </si>
+  <si>
+    <t>02/25/2021</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CANCELED TEST RECORD</t>
+  </si>
+  <si>
+    <t>Test Record</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>11/17/2020</t>
+  </si>
+  <si>
+    <t>No. of Records</t>
+  </si>
+  <si>
+    <t>Fulfillment Req Type</t>
+  </si>
+  <si>
+    <t>Fulfillment Type</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FULL PACKET</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
+    <t>TESTMLMEB ONE</t>
+  </si>
+  <si>
+    <t>42549189</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>MemberID</t>
+  </si>
+  <si>
+    <t>itqaops</t>
+  </si>
+  <si>
+    <t>Jan2022#</t>
+  </si>
+  <si>
+    <t>34317305</t>
+  </si>
+  <si>
+    <t>Apr2022#</t>
   </si>
 </sst>
 </file>
@@ -163,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,17 +346,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,11 +708,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27C1D44-BC4A-4318-950C-B4EC8D3110DD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,4 +895,461 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830E7083-BE80-4E85-8673-586DF1978817}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1EDA0E-0E82-4EF6-9F67-49CC378B7823}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7838BCBE-898A-4513-848A-731F20275D9C}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7378B3-BCCF-42EF-AAAE-999142DCE61C}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8881644-7D99-4603-A99A-E1785FDFE267}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260A3073-A155-4049-8EF5-28412434B0C2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CLMebAddNew/Excelfiles/CreateMember.xlsx
+++ b/CLMebAddNew/Excelfiles/CreateMember.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D120A-F0E6-43F5-95F0-19F30870347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FA5DF-4090-495F-AF11-8A7E163D0B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="723" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>Policy Number</t>
   </si>
@@ -87,9 +87,6 @@
     <t>PP001</t>
   </si>
   <si>
-    <t>TESTVSP2YR</t>
-  </si>
-  <si>
     <t>Test Street 1</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>MALE</t>
   </si>
   <si>
-    <t>VSP2YR</t>
-  </si>
-  <si>
     <t>Bank Draft</t>
   </si>
   <si>
@@ -129,18 +123,6 @@
     <t>07/09/2003</t>
   </si>
   <si>
-    <t>04/01/2022</t>
-  </si>
-  <si>
-    <t>MEBSIXTEEN</t>
-  </si>
-  <si>
-    <t>6168985969</t>
-  </si>
-  <si>
-    <t>8178684399</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -153,57 +135,24 @@
     <t>Membership Start Date</t>
   </si>
   <si>
-    <t>PPDCDEP</t>
-  </si>
-  <si>
-    <t>ONE</t>
-  </si>
-  <si>
     <t>02/23/2003</t>
   </si>
   <si>
-    <t>12/01/2020</t>
-  </si>
-  <si>
     <t>RAVIV@CLOUDTECHSOFT.COM</t>
   </si>
   <si>
     <t>Group</t>
   </si>
   <si>
-    <t>PPDCMEB</t>
-  </si>
-  <si>
-    <t>SEVEN UPDATE</t>
-  </si>
-  <si>
     <t>6814176561</t>
   </si>
   <si>
     <t>9258414361</t>
   </si>
   <si>
-    <t>10/21/2009</t>
-  </si>
-  <si>
-    <t>10/01/2020</t>
-  </si>
-  <si>
-    <t>TMWSCF</t>
-  </si>
-  <si>
     <t>Member Name</t>
   </si>
   <si>
-    <t>ONE UPDATE</t>
-  </si>
-  <si>
-    <t>10/21/2005</t>
-  </si>
-  <si>
-    <t>PPDCMEB SEVEN UPDATE</t>
-  </si>
-  <si>
     <t>Cancellation Req Date</t>
   </si>
   <si>
@@ -225,18 +174,9 @@
     <t>Approved Date</t>
   </si>
   <si>
-    <t>02/25/2021</t>
-  </si>
-  <si>
-    <t>02/01/2021</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
-    <t>CANCELED TEST RECORD</t>
-  </si>
-  <si>
     <t>Test Record</t>
   </si>
   <si>
@@ -267,9 +207,6 @@
     <t>ONLINE</t>
   </si>
   <si>
-    <t>TESTMLMEB ONE</t>
-  </si>
-  <si>
     <t>42549189</t>
   </si>
   <si>
@@ -292,6 +229,51 @@
   </si>
   <si>
     <t>Apr2022#</t>
+  </si>
+  <si>
+    <t>June2022#</t>
+  </si>
+  <si>
+    <t>TESTMIDDIR</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>MIDDIR</t>
+  </si>
+  <si>
+    <t>DEPONE</t>
+  </si>
+  <si>
+    <t>06/26/2022</t>
+  </si>
+  <si>
+    <t>VSP—Other</t>
+  </si>
+  <si>
+    <t>DEPONE SEVEN</t>
+  </si>
+  <si>
+    <t>TESTMIDDIR EIGHT UPDATE</t>
+  </si>
+  <si>
+    <t>MEBTEN</t>
+  </si>
+  <si>
+    <t>8261785959</t>
+  </si>
+  <si>
+    <t>8161634359</t>
+  </si>
+  <si>
+    <t>MEBTEN UPDATE</t>
+  </si>
+  <si>
+    <t>MEBNINE TEN</t>
+  </si>
+  <si>
+    <t>TESTMIDDIR TEN UPDATE</t>
   </si>
 </sst>
 </file>
@@ -711,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27C1D44-BC4A-4318-950C-B4EC8D3110DD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,18 +705,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +730,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,59 +819,59 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +884,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,16 +898,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -936,22 +918,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -963,14 +945,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1EDA0E-0E82-4EF6-9F67-49CC378B7823}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1024,52 +1006,52 @@
         <v>14</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1081,34 +1063,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7838BCBE-898A-4513-848A-731F20275D9C}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -1123,36 +1105,36 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1147,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,60 +1165,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1232,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1240,7 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
@@ -1266,45 +1248,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1329,24 +1311,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/CLMebAddNew/Excelfiles/CreateMember.xlsx
+++ b/CLMebAddNew/Excelfiles/CreateMember.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FA5DF-4090-495F-AF11-8A7E163D0B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F4DF56-B449-4EC8-8BD8-9CF278F0352A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="723" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="723" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>Policy Number</t>
   </si>
@@ -228,9 +228,6 @@
     <t>34317305</t>
   </si>
   <si>
-    <t>Apr2022#</t>
-  </si>
-  <si>
     <t>June2022#</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>DEPONE</t>
   </si>
   <si>
-    <t>06/26/2022</t>
-  </si>
-  <si>
     <t>VSP—Other</t>
   </si>
   <si>
@@ -258,22 +252,25 @@
     <t>TESTMIDDIR EIGHT UPDATE</t>
   </si>
   <si>
-    <t>MEBTEN</t>
-  </si>
-  <si>
-    <t>8261785959</t>
-  </si>
-  <si>
-    <t>8161634359</t>
-  </si>
-  <si>
-    <t>MEBTEN UPDATE</t>
-  </si>
-  <si>
-    <t>MEBNINE TEN</t>
-  </si>
-  <si>
-    <t>TESTMIDDIR TEN UPDATE</t>
+    <t>MEBELEVEN</t>
+  </si>
+  <si>
+    <t>8261785459</t>
+  </si>
+  <si>
+    <t>8161644359</t>
+  </si>
+  <si>
+    <t>MEBNINE ELEVEN</t>
+  </si>
+  <si>
+    <t>TESTMIDDIR ELEVEN UPDATE</t>
+  </si>
+  <si>
+    <t>MEBELEVEN UPDATE</t>
+  </si>
+  <si>
+    <t>06/29/2022</t>
   </si>
 </sst>
 </file>
@@ -716,7 +713,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +727,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,10 +816,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -838,10 +835,10 @@
         <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -853,13 +850,13 @@
         <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>27</v>
@@ -884,7 +881,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,16 +915,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -946,7 +943,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1008,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>81</v>
@@ -1045,13 +1042,13 @@
         <v>25</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1063,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7838BCBE-898A-4513-848A-731F20275D9C}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,16 +1107,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1128,13 +1125,13 @@
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1146,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7378B3-BCCF-42EF-AAAE-999142DCE61C}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1157,7 @@
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1194,16 +1191,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
@@ -1280,7 +1277,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>61</v>
